--- a/HW4/hw4_9821_fall2023.xlsx
+++ b/HW4/hw4_9821_fall2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericzeng/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericzeng/Documents/numerical-method-for-finance/MTH9821-numerical-method-for-financial-engineering/HW4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7088F44-661F-5E48-92D5-F06735DE2D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEAF974-EE61-EC4E-8F17-70C9E512D1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2060" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7400" yWindow="4600" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="38">
   <si>
     <t>Trinomial Tree Methods for American Options</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>In order of convergence speed: TBSR, TBS, and standard trinomial trees.</t>
+  </si>
+  <si>
+    <t>All three methods converge linearly, and TBSR also converges  quadratically but not very fast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greeks converge faster than the valuations. </t>
   </si>
 </sst>
 </file>
@@ -569,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2426,7 +2432,9 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45" spans="1:26" ht="13">
-      <c r="A45" s="7"/>
+      <c r="A45" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2454,6 +2462,9 @@
       <c r="Z45" s="4"/>
     </row>
     <row r="46" spans="1:26" ht="13">
+      <c r="A46" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>

--- a/HW4/hw4_9821_fall2023.xlsx
+++ b/HW4/hw4_9821_fall2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericzeng/Documents/numerical-method-for-finance/MTH9821-numerical-method-for-financial-engineering/HW4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A01949-AFA9-BE49-9119-3D20E37567C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159A5038-1D3D-1A4E-A721-8195419A7B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14620" yWindow="1880" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
   <si>
     <t>Trinomial Tree Methods for American Options</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>We have used Trinomial Black Scholes with Richardson Extrapolation as other Pricers were taking to long to converge</t>
+  </si>
+  <si>
+    <t>All the estimations converge linearly. Though the TBSR model have higher converge speeds on the option prices and other greek numbers, it does not do well on the estimation of delta.</t>
   </si>
 </sst>
 </file>
@@ -310,12 +313,12 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29238,8 +29241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -31030,7 +31033,7 @@
         <v>-0.20303448042192929</v>
       </c>
       <c r="G34" s="13">
-        <v>0.54842982836761589</v>
+        <v>0.14236086752375721</v>
       </c>
       <c r="H34" s="13">
         <v>4.48674580021724E-3</v>
@@ -31101,7 +31104,7 @@
         <v>-0.2030175205011118</v>
       </c>
       <c r="G35" s="13">
-        <v>0.54841286844679826</v>
+        <v>0.14237782744457469</v>
       </c>
       <c r="H35" s="13">
         <v>4.9809541355093634E-3</v>
@@ -31172,7 +31175,7 @@
         <v>-0.20237199569549161</v>
       </c>
       <c r="G36" s="13">
-        <v>0.54776734364117807</v>
+        <v>0.14302335225019491</v>
       </c>
       <c r="H36" s="13">
         <v>4.8421085280014459E-3</v>
@@ -31243,7 +31246,7 @@
         <v>-0.2023962780438408</v>
       </c>
       <c r="G37" s="13">
-        <v>0.54779162598952724</v>
+        <v>0.14299906990184569</v>
       </c>
       <c r="H37" s="13">
         <v>4.9064490703967373E-3</v>
@@ -31314,7 +31317,7 @@
         <v>-0.2023473035198344</v>
       </c>
       <c r="G38" s="13">
-        <v>0.54774265146552092</v>
+        <v>0.14304804442585209</v>
       </c>
       <c r="H38" s="13">
         <v>4.9135810760991688E-3</v>
@@ -31385,7 +31388,7 @@
         <v>-0.20233443439455789</v>
       </c>
       <c r="G39" s="13">
-        <v>0.5477297823402445</v>
+        <v>0.14306091355112849</v>
       </c>
       <c r="H39" s="13">
         <v>4.9210010088402006E-3</v>
@@ -31456,7 +31459,7 @@
         <v>-0.2023296790089891</v>
       </c>
       <c r="G40" s="13">
-        <v>0.54772502695467562</v>
+        <v>0.14306566893669739</v>
       </c>
       <c r="H40" s="13">
         <v>4.9290392542010036E-3</v>
@@ -31527,7 +31530,7 @@
         <v>-0.202328223530201</v>
       </c>
       <c r="G41" s="13">
-        <v>0.54772357147588746</v>
+        <v>0.1430671244154855</v>
       </c>
       <c r="H41" s="13">
         <v>4.9320483166081647E-3</v>
@@ -31668,15 +31671,15 @@
       <c r="AA44" s="4"/>
     </row>
     <row r="45" spans="1:27" ht="79.5" customHeight="1">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -31730,7 +31733,9 @@
       <c r="AA46" s="4"/>
     </row>
     <row r="47" spans="1:27" ht="13">
-      <c r="A47" s="7"/>
+      <c r="A47" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -59452,22 +59457,22 @@
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>0.05</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>0.246948</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>0.272646</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>0.27290399999999998</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>0.27290300000000001</v>
       </c>
     </row>
@@ -59475,22 +59480,22 @@
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>2.0003060000000001</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>12.031901</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>3.7990539999999999</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>4.0772170000000001</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <v>4.0800090000000004</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>4.0799989999999999</v>
       </c>
     </row>
@@ -59503,12 +59508,12 @@
       <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>0.27290300000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>45</v>
       </c>
     </row>
